--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.5177393298415</v>
+        <v>43.62448933333334</v>
       </c>
       <c r="H2">
-        <v>40.5177393298415</v>
+        <v>130.873468</v>
       </c>
       <c r="I2">
-        <v>0.2922139270093614</v>
+        <v>0.289568119079398</v>
       </c>
       <c r="J2">
-        <v>0.2922139270093614</v>
+        <v>0.2895681190793979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.2928913670001</v>
+        <v>19.00842133333333</v>
       </c>
       <c r="N2">
-        <v>18.2928913670001</v>
+        <v>57.02526399999999</v>
       </c>
       <c r="O2">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="P2">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="Q2">
-        <v>741.1866039972178</v>
+        <v>829.2326736995058</v>
       </c>
       <c r="R2">
-        <v>741.1866039972178</v>
+        <v>7463.094063295551</v>
       </c>
       <c r="S2">
-        <v>0.07896448727489612</v>
+        <v>0.07784300112847357</v>
       </c>
       <c r="T2">
-        <v>0.07896448727489612</v>
+        <v>0.07784300112847355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.5177393298415</v>
+        <v>43.62448933333334</v>
       </c>
       <c r="H3">
-        <v>40.5177393298415</v>
+        <v>130.873468</v>
       </c>
       <c r="I3">
-        <v>0.2922139270093614</v>
+        <v>0.289568119079398</v>
       </c>
       <c r="J3">
-        <v>0.2922139270093614</v>
+        <v>0.2895681190793979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.8856092384616</v>
+        <v>21.993491</v>
       </c>
       <c r="N3">
-        <v>21.8856092384616</v>
+        <v>65.980473</v>
       </c>
       <c r="O3">
-        <v>0.3233011091314086</v>
+        <v>0.3110405034011621</v>
       </c>
       <c r="P3">
-        <v>0.3233011091314086</v>
+        <v>0.311040503401162</v>
       </c>
       <c r="Q3">
-        <v>886.755410198758</v>
+        <v>959.4548135322628</v>
       </c>
       <c r="R3">
-        <v>886.755410198758</v>
+        <v>8635.093321790364</v>
       </c>
       <c r="S3">
-        <v>0.09447308670577101</v>
+        <v>0.09006741352738359</v>
       </c>
       <c r="T3">
-        <v>0.09447308670577101</v>
+        <v>0.09006741352738357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.5177393298415</v>
+        <v>43.62448933333334</v>
       </c>
       <c r="H4">
-        <v>40.5177393298415</v>
+        <v>130.873468</v>
       </c>
       <c r="I4">
-        <v>0.2922139270093614</v>
+        <v>0.289568119079398</v>
       </c>
       <c r="J4">
-        <v>0.2922139270093614</v>
+        <v>0.2895681190793979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.1458474788383</v>
+        <v>17.47796633333333</v>
       </c>
       <c r="N4">
-        <v>16.1458474788383</v>
+        <v>52.433899</v>
       </c>
       <c r="O4">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="P4">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="Q4">
-        <v>654.1932394069487</v>
+        <v>762.4673558768591</v>
       </c>
       <c r="R4">
-        <v>654.1932394069487</v>
+        <v>6862.206202891732</v>
       </c>
       <c r="S4">
-        <v>0.06969639420070654</v>
+        <v>0.07157550483286267</v>
       </c>
       <c r="T4">
-        <v>0.06969639420070654</v>
+        <v>0.07157550483286265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.5177393298415</v>
+        <v>43.62448933333334</v>
       </c>
       <c r="H5">
-        <v>40.5177393298415</v>
+        <v>130.873468</v>
       </c>
       <c r="I5">
-        <v>0.2922139270093614</v>
+        <v>0.289568119079398</v>
       </c>
       <c r="J5">
-        <v>0.2922139270093614</v>
+        <v>0.2895681190793979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.369849740323</v>
+        <v>12.229533</v>
       </c>
       <c r="N5">
-        <v>11.369849740323</v>
+        <v>36.688599</v>
       </c>
       <c r="O5">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="P5">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="Q5">
-        <v>460.6806079978733</v>
+        <v>533.5071319101481</v>
       </c>
       <c r="R5">
-        <v>460.6806079978733</v>
+        <v>4801.564187191332</v>
       </c>
       <c r="S5">
-        <v>0.0490799588279877</v>
+        <v>0.05008219959067818</v>
       </c>
       <c r="T5">
-        <v>0.0490799588279877</v>
+        <v>0.05008219959067816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.6920568525464</v>
+        <v>39.73808533333334</v>
       </c>
       <c r="H6">
-        <v>39.6920568525464</v>
+        <v>119.214256</v>
       </c>
       <c r="I6">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="J6">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.2928913670001</v>
+        <v>19.00842133333333</v>
       </c>
       <c r="N6">
-        <v>18.2928913670001</v>
+        <v>57.02526399999999</v>
       </c>
       <c r="O6">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="P6">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="Q6">
-        <v>726.0824841364232</v>
+        <v>755.3582689959537</v>
       </c>
       <c r="R6">
-        <v>726.0824841364232</v>
+        <v>6798.224420963584</v>
       </c>
       <c r="S6">
-        <v>0.07735532559534868</v>
+        <v>0.07090814972778239</v>
       </c>
       <c r="T6">
-        <v>0.07735532559534868</v>
+        <v>0.07090814972778237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.6920568525464</v>
+        <v>39.73808533333334</v>
       </c>
       <c r="H7">
-        <v>39.6920568525464</v>
+        <v>119.214256</v>
       </c>
       <c r="I7">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="J7">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.8856092384616</v>
+        <v>21.993491</v>
       </c>
       <c r="N7">
-        <v>21.8856092384616</v>
+        <v>65.980473</v>
       </c>
       <c r="O7">
-        <v>0.3233011091314086</v>
+        <v>0.3110405034011621</v>
       </c>
       <c r="P7">
-        <v>0.3233011091314086</v>
+        <v>0.311040503401162</v>
       </c>
       <c r="Q7">
-        <v>868.6848461456326</v>
+        <v>873.9792221358989</v>
       </c>
       <c r="R7">
-        <v>868.6848461456326</v>
+        <v>7865.812999223089</v>
       </c>
       <c r="S7">
-        <v>0.09254788619954522</v>
+        <v>0.08204351773967945</v>
       </c>
       <c r="T7">
-        <v>0.09254788619954522</v>
+        <v>0.08204351773967943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.6920568525464</v>
+        <v>39.73808533333334</v>
       </c>
       <c r="H8">
-        <v>39.6920568525464</v>
+        <v>119.214256</v>
       </c>
       <c r="I8">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="J8">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.1458474788383</v>
+        <v>17.47796633333333</v>
       </c>
       <c r="N8">
-        <v>16.1458474788383</v>
+        <v>52.433899</v>
       </c>
       <c r="O8">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="P8">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="Q8">
-        <v>640.8618960625927</v>
+        <v>694.5409176071271</v>
       </c>
       <c r="R8">
-        <v>640.8618960625927</v>
+        <v>6250.868258464144</v>
       </c>
       <c r="S8">
-        <v>0.06827610046334615</v>
+        <v>0.06519901005812825</v>
       </c>
       <c r="T8">
-        <v>0.06827610046334615</v>
+        <v>0.06519901005812824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.6920568525464</v>
+        <v>39.73808533333334</v>
       </c>
       <c r="H9">
-        <v>39.6920568525464</v>
+        <v>119.214256</v>
       </c>
       <c r="I9">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="J9">
-        <v>0.2862591051672771</v>
+        <v>0.2637711707721372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.369849740323</v>
+        <v>12.229533</v>
       </c>
       <c r="N9">
-        <v>11.369849740323</v>
+        <v>36.688599</v>
       </c>
       <c r="O9">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="P9">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="Q9">
-        <v>451.2927222978104</v>
+        <v>485.9782259408161</v>
       </c>
       <c r="R9">
-        <v>451.2927222978104</v>
+        <v>4373.804033467344</v>
       </c>
       <c r="S9">
-        <v>0.04807979290903704</v>
+        <v>0.04562049324654714</v>
       </c>
       <c r="T9">
-        <v>0.04807979290903704</v>
+        <v>0.04562049324654713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.3063457879538</v>
+        <v>34.33650333333333</v>
       </c>
       <c r="H10">
-        <v>29.3063457879538</v>
+        <v>103.00951</v>
       </c>
       <c r="I10">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="J10">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.2928913670001</v>
+        <v>19.00842133333333</v>
       </c>
       <c r="N10">
-        <v>18.2928913670001</v>
+        <v>57.02526399999999</v>
       </c>
       <c r="O10">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="P10">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="Q10">
-        <v>536.0977998627798</v>
+        <v>652.6827224734044</v>
       </c>
       <c r="R10">
-        <v>536.0977998627798</v>
+        <v>5874.144502260639</v>
       </c>
       <c r="S10">
-        <v>0.0571147504111167</v>
+        <v>0.06126963337728247</v>
       </c>
       <c r="T10">
-        <v>0.0571147504111167</v>
+        <v>0.06126963337728245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.3063457879538</v>
+        <v>34.33650333333333</v>
       </c>
       <c r="H11">
-        <v>29.3063457879538</v>
+        <v>103.00951</v>
       </c>
       <c r="I11">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="J11">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8856092384616</v>
+        <v>21.993491</v>
       </c>
       <c r="N11">
-        <v>21.8856092384616</v>
+        <v>65.980473</v>
       </c>
       <c r="O11">
-        <v>0.3233011091314086</v>
+        <v>0.3110405034011621</v>
       </c>
       <c r="P11">
-        <v>0.3233011091314086</v>
+        <v>0.311040503401162</v>
       </c>
       <c r="Q11">
-        <v>641.3872321223919</v>
+        <v>755.1795770331368</v>
       </c>
       <c r="R11">
-        <v>641.3872321223919</v>
+        <v>6796.61619329823</v>
       </c>
       <c r="S11">
-        <v>0.06833206868023693</v>
+        <v>0.07089137528183447</v>
       </c>
       <c r="T11">
-        <v>0.06833206868023693</v>
+        <v>0.07089137528183447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.3063457879538</v>
+        <v>34.33650333333333</v>
       </c>
       <c r="H12">
-        <v>29.3063457879538</v>
+        <v>103.00951</v>
       </c>
       <c r="I12">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="J12">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.1458474788383</v>
+        <v>17.47796633333333</v>
       </c>
       <c r="N12">
-        <v>16.1458474788383</v>
+        <v>52.433899</v>
       </c>
       <c r="O12">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="P12">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="Q12">
-        <v>473.1757892543972</v>
+        <v>600.1322492643877</v>
       </c>
       <c r="R12">
-        <v>473.1757892543972</v>
+        <v>5401.19024337949</v>
       </c>
       <c r="S12">
-        <v>0.0504111695865297</v>
+        <v>0.05633653477292902</v>
       </c>
       <c r="T12">
-        <v>0.0504111695865297</v>
+        <v>0.05633653477292902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.3063457879538</v>
+        <v>34.33650333333333</v>
       </c>
       <c r="H13">
-        <v>29.3063457879538</v>
+        <v>103.00951</v>
       </c>
       <c r="I13">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="J13">
-        <v>0.2113573592859614</v>
+        <v>0.227916861330445</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.369849740323</v>
+        <v>12.229533</v>
       </c>
       <c r="N13">
-        <v>11.369849740323</v>
+        <v>36.688599</v>
       </c>
       <c r="O13">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="P13">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="Q13">
-        <v>333.2087480469825</v>
+        <v>419.91940061961</v>
       </c>
       <c r="R13">
-        <v>333.2087480469825</v>
+        <v>3779.274605576491</v>
       </c>
       <c r="S13">
-        <v>0.03549937060807805</v>
+        <v>0.03941931789839908</v>
       </c>
       <c r="T13">
-        <v>0.03549937060807805</v>
+        <v>0.03941931789839907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.1416548859439</v>
+        <v>32.95455566666667</v>
       </c>
       <c r="H14">
-        <v>29.1416548859439</v>
+        <v>98.86366700000001</v>
       </c>
       <c r="I14">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="J14">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.2928913670001</v>
+        <v>19.00842133333333</v>
       </c>
       <c r="N14">
-        <v>18.2928913670001</v>
+        <v>57.02526399999999</v>
       </c>
       <c r="O14">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="P14">
-        <v>0.2702283497677591</v>
+        <v>0.2688244872258518</v>
       </c>
       <c r="Q14">
-        <v>533.0851270831794</v>
+        <v>626.4140789647876</v>
       </c>
       <c r="R14">
-        <v>533.0851270831794</v>
+        <v>5637.726710683088</v>
       </c>
       <c r="S14">
-        <v>0.05679378648639758</v>
+        <v>0.05880370299231343</v>
       </c>
       <c r="T14">
-        <v>0.05679378648639758</v>
+        <v>0.0588037029923134</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.1416548859439</v>
+        <v>32.95455566666667</v>
       </c>
       <c r="H15">
-        <v>29.1416548859439</v>
+        <v>98.86366700000001</v>
       </c>
       <c r="I15">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="J15">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.8856092384616</v>
+        <v>21.993491</v>
       </c>
       <c r="N15">
-        <v>21.8856092384616</v>
+        <v>65.980473</v>
       </c>
       <c r="O15">
-        <v>0.3233011091314086</v>
+        <v>0.3110405034011621</v>
       </c>
       <c r="P15">
-        <v>0.3233011091314086</v>
+        <v>0.311040503401162</v>
       </c>
       <c r="Q15">
-        <v>637.7828713958735</v>
+        <v>724.7857234638325</v>
       </c>
       <c r="R15">
-        <v>637.7828713958735</v>
+        <v>6523.071511174492</v>
       </c>
       <c r="S15">
-        <v>0.06794806754585545</v>
+        <v>0.06803819685226456</v>
       </c>
       <c r="T15">
-        <v>0.06794806754585545</v>
+        <v>0.06803819685226455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.1416548859439</v>
+        <v>32.95455566666667</v>
       </c>
       <c r="H16">
-        <v>29.1416548859439</v>
+        <v>98.86366700000001</v>
       </c>
       <c r="I16">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="J16">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.1458474788383</v>
+        <v>17.47796633333333</v>
       </c>
       <c r="N16">
-        <v>16.1458474788383</v>
+        <v>52.433899</v>
       </c>
       <c r="O16">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="P16">
-        <v>0.2385115415750658</v>
+        <v>0.2471801973933361</v>
       </c>
       <c r="Q16">
-        <v>470.5167150693931</v>
+        <v>575.9786144719592</v>
       </c>
       <c r="R16">
-        <v>470.5167150693931</v>
+        <v>5183.807530247633</v>
       </c>
       <c r="S16">
-        <v>0.05012787732448343</v>
+        <v>0.05406914772941621</v>
       </c>
       <c r="T16">
-        <v>0.05012787732448343</v>
+        <v>0.0540691477294162</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1416548859439</v>
+        <v>32.95455566666667</v>
       </c>
       <c r="H17">
-        <v>29.1416548859439</v>
+        <v>98.86366700000001</v>
       </c>
       <c r="I17">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="J17">
-        <v>0.2101696085374002</v>
+        <v>0.2187438488180198</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.369849740323</v>
+        <v>12.229533</v>
       </c>
       <c r="N17">
-        <v>11.369849740323</v>
+        <v>36.688599</v>
       </c>
       <c r="O17">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="P17">
-        <v>0.1679589995257665</v>
+        <v>0.17295481197965</v>
       </c>
       <c r="Q17">
-        <v>331.3362372375317</v>
+        <v>403.0188260258371</v>
       </c>
       <c r="R17">
-        <v>331.3362372375317</v>
+        <v>3627.169434232534</v>
       </c>
       <c r="S17">
-        <v>0.03529987718066373</v>
+        <v>0.03783280124402559</v>
       </c>
       <c r="T17">
-        <v>0.03529987718066373</v>
+        <v>0.03783280124402558</v>
       </c>
     </row>
   </sheetData>
